--- a/GenericBackend/GenericBackend.Excel.Tests/FilesToParse/PlanActual.xlsx
+++ b/GenericBackend/GenericBackend.Excel.Tests/FilesToParse/PlanActual.xlsx
@@ -1,36 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8010" activeTab="2"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet1" sheetId="22" r:id="rId1"/>
-    <sheet name="PLAN" sheetId="27" r:id="rId2"/>
-    <sheet name="ACTUAL" sheetId="26" r:id="rId3"/>
-  </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-    <externalReference r:id="rId5"/>
-    <externalReference r:id="rId6"/>
-  </externalReferences>
-  <definedNames>
-    <definedName name="actualList">[1]ExtraSheet!$F$1:$F$2</definedName>
-    <definedName name="chapterList">OFFSET([2]ListSheet!$D$2,0,0,COUNTA([2]ListSheet!$D:$D)-1,1)</definedName>
-    <definedName name="contractorlist">[1]ExtraSheet!$I$5:$I$6</definedName>
-    <definedName name="dateList">OFFSET([1]ListSheet!$A$2,0,0,COUNTA([1]ListSheet!$A:$A)-1,1)</definedName>
-    <definedName name="EE">[2]ExtraSheet!$F$1:$F$2</definedName>
-    <definedName name="itemList">OFFSET([1]ListSheet!$B$2,0,0,COUNTA([1]ListSheet!$B:$B)-1,1)</definedName>
-    <definedName name="planeList">[1]ExtraSheet!$E$1:$E$2</definedName>
-    <definedName name="updateActualList">[2]ExtraSheet!$G$1:$G$2</definedName>
-    <definedName name="ביקור">[3]גיליון2!$F$2:$F$4</definedName>
-    <definedName name="ועדות">[3]גיליון2!$A$1:$A$8</definedName>
-    <definedName name="קובץ_תואם">[3]גיליון2!$C$10:$C$12</definedName>
-  </definedNames>
-  <calcPr calcId="152511"/>
-</workbook>
+<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15">
+  <x:fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <x:workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <x:bookViews>
+    <x:workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8010" activeTab="2"/>
+  </x:bookViews>
+  <x:sheets>
+    <x:sheet name="Sheet1" sheetId="22" r:id="rId1"/>
+    <x:sheet name="PLAN" sheetId="27" r:id="rId2"/>
+    <x:sheet name="ACTUAL" sheetId="26" r:id="rId3"/>
+  </x:sheets>
+  <x:externalReferences>
+    <x:externalReference r:id="rId4"/>
+    <x:externalReference r:id="rId5"/>
+    <x:externalReference r:id="rId6"/>
+  </x:externalReferences>
+  <x:definedNames>
+    <x:definedName name="actualList">[1]ExtraSheet!$F$1:$F$2</x:definedName>
+    <x:definedName name="chapterList">OFFSET([2]ListSheet!$D$2,0,0,COUNTA([2]ListSheet!$D:$D)-1,1)</x:definedName>
+    <x:definedName name="contractorlist">[1]ExtraSheet!$I$5:$I$6</x:definedName>
+    <x:definedName name="dateList">OFFSET([1]ListSheet!$A$2,0,0,COUNTA([1]ListSheet!$A:$A)-1,1)</x:definedName>
+    <x:definedName name="EE">[2]ExtraSheet!$F$1:$F$2</x:definedName>
+    <x:definedName name="itemList">OFFSET([1]ListSheet!$B$2,0,0,COUNTA([1]ListSheet!$B:$B)-1,1)</x:definedName>
+    <x:definedName name="planeList">[1]ExtraSheet!$E$1:$E$2</x:definedName>
+    <x:definedName name="updateActualList">[2]ExtraSheet!$G$1:$G$2</x:definedName>
+    <x:definedName name="ביקור">[3]גיליון2!$F$2:$F$4</x:definedName>
+    <x:definedName name="ועדות">[3]גיליון2!$A$1:$A$8</x:definedName>
+    <x:definedName name="קובץ_תואם">[3]גיליון2!$C$10:$C$12</x:definedName>
+  </x:definedNames>
+  <x:calcPr calcId="152511"/>
+</x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
